--- a/Data/Temp/Reports/ZEUFI037-Spain-2025 04.xlsx
+++ b/Data/Temp/Reports/ZEUFI037-Spain-2025 04.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="346">
   <si>
     <t>E002</t>
   </si>
@@ -727,19 +727,22 @@
     <t>P. diferidos</t>
   </si>
   <si>
+    <t>PAGO IAE TREMOEDO 2020-2023 PGCB</t>
+  </si>
+  <si>
+    <t>0521420003</t>
+  </si>
+  <si>
+    <t>ACREEDORES TRIBUTOS</t>
+  </si>
+  <si>
+    <t>6699000001</t>
+  </si>
+  <si>
+    <t>Otros gtos. Financ.</t>
+  </si>
+  <si>
     <t>PAGO IAE TREMOEDO 2020-2023</t>
-  </si>
-  <si>
-    <t>0521420003</t>
-  </si>
-  <si>
-    <t>ACREEDORES TRIBUTOS</t>
-  </si>
-  <si>
-    <t>6699000001</t>
-  </si>
-  <si>
-    <t>Otros gtos. Financ.</t>
   </si>
   <si>
     <t>5550000040</t>
@@ -1211,115 +1214,115 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -13490,7 +13493,7 @@
         <v>0.00</v>
       </c>
       <c r="Z109" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA109" t="s">
         <v>8</v>
@@ -13585,10 +13588,10 @@
         <v>11</v>
       </c>
       <c r="T110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="V110" s="3">
         <v>0.00</v>
@@ -13662,7 +13665,7 @@
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I111" s="2">
         <v>45770</v>
@@ -13740,10 +13743,10 @@
         <v>8</v>
       </c>
       <c r="AH111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI111" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ111" t="s">
         <v>73</v>
@@ -13775,7 +13778,7 @@
         <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I112" s="2">
         <v>45770</v>
@@ -13853,10 +13856,10 @@
         <v>8</v>
       </c>
       <c r="AH112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AI112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ112" t="s">
         <v>73</v>
@@ -13888,7 +13891,7 @@
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I113" s="2">
         <v>45770</v>
@@ -13966,10 +13969,10 @@
         <v>8</v>
       </c>
       <c r="AH113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ113" t="s">
         <v>73</v>
@@ -14001,7 +14004,7 @@
         <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I114" s="2">
         <v>45770</v>
@@ -14079,10 +14082,10 @@
         <v>8</v>
       </c>
       <c r="AH114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AI114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ114" t="s">
         <v>73</v>
@@ -14114,7 +14117,7 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I115" s="2">
         <v>45770</v>
@@ -14192,10 +14195,10 @@
         <v>8</v>
       </c>
       <c r="AH115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ115" t="s">
         <v>73</v>
@@ -14227,7 +14230,7 @@
         <v>6</v>
       </c>
       <c r="H116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I116" s="2">
         <v>45770</v>
@@ -14305,10 +14308,10 @@
         <v>8</v>
       </c>
       <c r="AH116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AI116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ116" t="s">
         <v>73</v>
@@ -14340,7 +14343,7 @@
         <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I117" s="2">
         <v>45770</v>
@@ -14418,10 +14421,10 @@
         <v>8</v>
       </c>
       <c r="AH117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ117" t="s">
         <v>73</v>
@@ -14453,7 +14456,7 @@
         <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I118" s="2">
         <v>45770</v>
@@ -14531,10 +14534,10 @@
         <v>8</v>
       </c>
       <c r="AH118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AI118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ118" t="s">
         <v>73</v>
@@ -14566,7 +14569,7 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I119" s="2">
         <v>45770</v>
@@ -14644,10 +14647,10 @@
         <v>8</v>
       </c>
       <c r="AH119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ119" t="s">
         <v>73</v>
@@ -14679,7 +14682,7 @@
         <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I120" s="2">
         <v>45770</v>
@@ -14757,10 +14760,10 @@
         <v>8</v>
       </c>
       <c r="AH120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AI120" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ120" t="s">
         <v>73</v>
@@ -14792,7 +14795,7 @@
         <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I121" s="2">
         <v>45772</v>
@@ -14905,7 +14908,7 @@
         <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I122" s="2">
         <v>45772</v>
@@ -14983,10 +14986,10 @@
         <v>8</v>
       </c>
       <c r="AH122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ122" t="s">
         <v>161</v>
@@ -15018,7 +15021,7 @@
         <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I123" s="2">
         <v>45772</v>
@@ -15096,10 +15099,10 @@
         <v>8</v>
       </c>
       <c r="AH123" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ123" t="s">
         <v>161</v>
@@ -15116,7 +15119,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D124" t="s">
         <v>41</v>
@@ -15131,7 +15134,7 @@
         <v>6</v>
       </c>
       <c r="H124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I124" s="2">
         <v>45775</v>
@@ -15229,7 +15232,7 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D125" t="s">
         <v>41</v>
@@ -15244,7 +15247,7 @@
         <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I125" s="2">
         <v>45775</v>
@@ -15322,10 +15325,10 @@
         <v>8</v>
       </c>
       <c r="AH125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AI125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ125" t="s">
         <v>73</v>
@@ -15342,7 +15345,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D126" t="s">
         <v>41</v>
@@ -15357,7 +15360,7 @@
         <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I126" s="2">
         <v>45775</v>
@@ -15435,10 +15438,10 @@
         <v>8</v>
       </c>
       <c r="AH126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AI126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ126" t="s">
         <v>73</v>
@@ -15470,7 +15473,7 @@
         <v>6</v>
       </c>
       <c r="H127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I127" s="2">
         <v>45777</v>
@@ -15583,7 +15586,7 @@
         <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I128" s="2">
         <v>45777</v>
@@ -15696,7 +15699,7 @@
         <v>6</v>
       </c>
       <c r="H129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I129" s="2">
         <v>45777</v>
@@ -15809,7 +15812,7 @@
         <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I130" s="2">
         <v>45777</v>
@@ -15922,7 +15925,7 @@
         <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I131" s="2">
         <v>45777</v>
@@ -16000,10 +16003,10 @@
         <v>8</v>
       </c>
       <c r="AH131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AI131" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ131" t="s">
         <v>159</v>
@@ -16035,7 +16038,7 @@
         <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I132" s="2">
         <v>45777</v>
@@ -16113,10 +16116,10 @@
         <v>8</v>
       </c>
       <c r="AH132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AI132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ132" t="s">
         <v>159</v>
@@ -16148,7 +16151,7 @@
         <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I133" s="2">
         <v>45777</v>
@@ -16261,7 +16264,7 @@
         <v>6</v>
       </c>
       <c r="H134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I134" s="2">
         <v>45777</v>
@@ -16339,10 +16342,10 @@
         <v>8</v>
       </c>
       <c r="AH134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AI134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AJ134" t="s">
         <v>159</v>
@@ -16374,7 +16377,7 @@
         <v>6</v>
       </c>
       <c r="H135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I135" s="2">
         <v>45777</v>
@@ -16452,10 +16455,10 @@
         <v>8</v>
       </c>
       <c r="AH135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AI135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AJ135" t="s">
         <v>159</v>
@@ -16487,7 +16490,7 @@
         <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I136" s="2">
         <v>45777</v>
@@ -16565,10 +16568,10 @@
         <v>8</v>
       </c>
       <c r="AH136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ136" t="s">
         <v>159</v>
@@ -16600,7 +16603,7 @@
         <v>6</v>
       </c>
       <c r="H137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I137" s="2">
         <v>45777</v>
@@ -16678,10 +16681,10 @@
         <v>8</v>
       </c>
       <c r="AH137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI137" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ137" t="s">
         <v>159</v>
@@ -16713,7 +16716,7 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I138" s="2">
         <v>45777</v>
@@ -16826,7 +16829,7 @@
         <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I139" s="2">
         <v>45777</v>
@@ -16939,7 +16942,7 @@
         <v>6</v>
       </c>
       <c r="H140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I140" s="2">
         <v>45777</v>
@@ -17017,10 +17020,10 @@
         <v>8</v>
       </c>
       <c r="AH140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AI140" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ140" t="s">
         <v>159</v>
@@ -17052,7 +17055,7 @@
         <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I141" s="2">
         <v>45777</v>
@@ -17130,10 +17133,10 @@
         <v>8</v>
       </c>
       <c r="AH141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AI141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ141" t="s">
         <v>159</v>
@@ -17144,13 +17147,13 @@
     </row>
     <row r="142" spans="1:37">
       <c r="A142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D142" t="s">
         <v>41</v>
@@ -17165,7 +17168,7 @@
         <v>6</v>
       </c>
       <c r="H142" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I142" s="2">
         <v>45771</v>
@@ -17243,10 +17246,10 @@
         <v>8</v>
       </c>
       <c r="AH142" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ142" t="s">
         <v>73</v>
@@ -17257,13 +17260,13 @@
     </row>
     <row r="143" spans="1:37">
       <c r="A143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D143" t="s">
         <v>41</v>
@@ -17278,7 +17281,7 @@
         <v>6</v>
       </c>
       <c r="H143" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I143" s="2">
         <v>45771</v>
@@ -17356,10 +17359,10 @@
         <v>8</v>
       </c>
       <c r="AH143" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI143" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ143" t="s">
         <v>73</v>
@@ -17370,13 +17373,13 @@
     </row>
     <row r="144" spans="1:37">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D144" t="s">
         <v>41</v>
@@ -17391,7 +17394,7 @@
         <v>6</v>
       </c>
       <c r="H144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I144" s="2">
         <v>45771</v>
@@ -17445,25 +17448,25 @@
         <v>0.00</v>
       </c>
       <c r="Z144" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA144" t="s">
         <v>8</v>
       </c>
       <c r="AB144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AC144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD144" t="s">
         <v>8</v>
       </c>
       <c r="AE144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG144" t="s">
         <v>8</v>
@@ -17483,13 +17486,13 @@
     </row>
     <row r="145" spans="1:37">
       <c r="A145" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D145" t="s">
         <v>41</v>
@@ -17504,7 +17507,7 @@
         <v>6</v>
       </c>
       <c r="H145" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I145" s="2">
         <v>45771</v>
@@ -17564,19 +17567,19 @@
         <v>8</v>
       </c>
       <c r="AB145" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AC145" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD145" t="s">
         <v>8</v>
       </c>
       <c r="AE145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG145" t="s">
         <v>8</v>
@@ -17596,7 +17599,7 @@
     </row>
     <row r="146" spans="1:37">
       <c r="A146" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B146" t="s">
         <v>1</v>
@@ -17617,7 +17620,7 @@
         <v>6</v>
       </c>
       <c r="H146" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I146" s="2">
         <v>45777</v>
@@ -17653,10 +17656,10 @@
         <v>16</v>
       </c>
       <c r="T146" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U146" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V146" s="3">
         <v>1647.94</v>
@@ -17709,7 +17712,7 @@
     </row>
     <row r="147" spans="1:37">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B147" t="s">
         <v>1</v>
@@ -17730,7 +17733,7 @@
         <v>6</v>
       </c>
       <c r="H147" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I147" s="2">
         <v>45777</v>
@@ -17766,10 +17769,10 @@
         <v>11</v>
       </c>
       <c r="T147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V147" s="3">
         <v>0.00</v>
@@ -17822,7 +17825,7 @@
     </row>
     <row r="148" spans="1:37">
       <c r="A148" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
@@ -17843,7 +17846,7 @@
         <v>6</v>
       </c>
       <c r="H148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I148" s="2">
         <v>45777</v>
@@ -17879,10 +17882,10 @@
         <v>16</v>
       </c>
       <c r="T148" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U148" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V148" s="3">
         <v>83.38</v>
@@ -17935,7 +17938,7 @@
     </row>
     <row r="149" spans="1:37">
       <c r="A149" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B149" t="s">
         <v>1</v>
@@ -17956,7 +17959,7 @@
         <v>6</v>
       </c>
       <c r="H149" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I149" s="2">
         <v>45777</v>
@@ -18016,19 +18019,19 @@
         <v>8</v>
       </c>
       <c r="AB149" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC149" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AD149" t="s">
         <v>8</v>
       </c>
       <c r="AE149" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF149" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG149" t="s">
         <v>8</v>
@@ -18048,7 +18051,7 @@
     </row>
     <row r="150" spans="1:37">
       <c r="A150" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B150" t="s">
         <v>1</v>
@@ -18069,7 +18072,7 @@
         <v>6</v>
       </c>
       <c r="H150" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I150" s="2">
         <v>45777</v>
@@ -18105,10 +18108,10 @@
         <v>16</v>
       </c>
       <c r="T150" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V150" s="3">
         <v>6031.74</v>
@@ -18161,7 +18164,7 @@
     </row>
     <row r="151" spans="1:37">
       <c r="A151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B151" t="s">
         <v>1</v>
@@ -18182,7 +18185,7 @@
         <v>6</v>
       </c>
       <c r="H151" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I151" s="2">
         <v>45777</v>
@@ -18218,10 +18221,10 @@
         <v>11</v>
       </c>
       <c r="T151" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U151" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V151" s="3">
         <v>0.00</v>
@@ -18274,7 +18277,7 @@
     </row>
     <row r="152" spans="1:37">
       <c r="A152" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -18295,7 +18298,7 @@
         <v>6</v>
       </c>
       <c r="H152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I152" s="2">
         <v>45754</v>
@@ -18331,10 +18334,10 @@
         <v>11</v>
       </c>
       <c r="T152" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U152" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V152" s="3">
         <v>0.00</v>
@@ -18387,7 +18390,7 @@
     </row>
     <row r="153" spans="1:37">
       <c r="A153" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B153" t="s">
         <v>1</v>
@@ -18408,7 +18411,7 @@
         <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I153" s="2">
         <v>45754</v>
@@ -18444,10 +18447,10 @@
         <v>16</v>
       </c>
       <c r="T153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U153" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V153" s="3">
         <v>25000.00</v>
@@ -18500,7 +18503,7 @@
     </row>
     <row r="154" spans="1:37">
       <c r="A154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B154" t="s">
         <v>1</v>
@@ -18521,7 +18524,7 @@
         <v>6</v>
       </c>
       <c r="H154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I154" s="2">
         <v>45754</v>
@@ -18557,10 +18560,10 @@
         <v>11</v>
       </c>
       <c r="T154" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="U154" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="V154" s="3">
         <v>0.00</v>
@@ -18575,25 +18578,25 @@
         <v>0.00</v>
       </c>
       <c r="Z154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA154" t="s">
         <v>8</v>
       </c>
       <c r="AB154" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AC154" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AD154" t="s">
         <v>8</v>
       </c>
       <c r="AE154" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG154" t="s">
         <v>8</v>
@@ -18613,7 +18616,7 @@
     </row>
     <row r="155" spans="1:37">
       <c r="A155" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B155" t="s">
         <v>1</v>
@@ -18634,7 +18637,7 @@
         <v>6</v>
       </c>
       <c r="H155" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I155" s="2">
         <v>45754</v>
@@ -18670,10 +18673,10 @@
         <v>11</v>
       </c>
       <c r="T155" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V155" s="3">
         <v>0.00</v>
@@ -18726,7 +18729,7 @@
     </row>
     <row r="156" spans="1:37">
       <c r="A156" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B156" t="s">
         <v>1</v>
@@ -18747,7 +18750,7 @@
         <v>6</v>
       </c>
       <c r="H156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I156" s="2">
         <v>45754</v>
@@ -18783,10 +18786,10 @@
         <v>16</v>
       </c>
       <c r="T156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U156" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V156" s="3">
         <v>10000.00</v>
@@ -18839,7 +18842,7 @@
     </row>
     <row r="157" spans="1:37">
       <c r="A157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B157" t="s">
         <v>1</v>
@@ -18860,7 +18863,7 @@
         <v>6</v>
       </c>
       <c r="H157" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I157" s="2">
         <v>45754</v>
@@ -18896,10 +18899,10 @@
         <v>11</v>
       </c>
       <c r="T157" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="U157" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="V157" s="3">
         <v>0.00</v>
@@ -18914,25 +18917,25 @@
         <v>0.00</v>
       </c>
       <c r="Z157" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA157" t="s">
         <v>8</v>
       </c>
       <c r="AB157" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AC157" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AD157" t="s">
         <v>8</v>
       </c>
       <c r="AE157" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF157" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG157" t="s">
         <v>8</v>
@@ -18952,7 +18955,7 @@
     </row>
     <row r="158" spans="1:37">
       <c r="A158" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B158" t="s">
         <v>1</v>
@@ -18973,7 +18976,7 @@
         <v>6</v>
       </c>
       <c r="H158" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I158" s="2">
         <v>45777</v>
@@ -19009,10 +19012,10 @@
         <v>11</v>
       </c>
       <c r="T158" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U158" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V158" s="3">
         <v>0.00</v>
@@ -19065,7 +19068,7 @@
     </row>
     <row r="159" spans="1:37">
       <c r="A159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B159" t="s">
         <v>1</v>
@@ -19086,7 +19089,7 @@
         <v>6</v>
       </c>
       <c r="H159" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I159" s="2">
         <v>45777</v>
@@ -19122,10 +19125,10 @@
         <v>16</v>
       </c>
       <c r="T159" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U159" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V159" s="3">
         <v>945.00</v>
